--- a/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario1.xlsx
+++ b/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario1.xlsx
@@ -772,22 +772,22 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16</v>
+      </c>
+      <c r="H8" t="n">
+        <v>44</v>
+      </c>
+      <c r="I8" t="n">
         <v>38</v>
-      </c>
-      <c r="E8" t="n">
-        <v>44</v>
-      </c>
-      <c r="F8" t="n">
-        <v>16</v>
-      </c>
-      <c r="G8" t="n">
-        <v>15</v>
-      </c>
-      <c r="H8" t="n">
-        <v>23</v>
-      </c>
-      <c r="I8" t="n">
-        <v>21</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -808,16 +808,16 @@
         <v>277.028</v>
       </c>
       <c r="P8" t="n">
-        <v>308.052</v>
+        <v>312.028</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.134</v>
+        <v>328.111</v>
       </c>
       <c r="R8" t="n">
-        <v>349.946</v>
+        <v>348.927</v>
       </c>
       <c r="S8" t="n">
-        <v>402.372</v>
+        <v>401.354</v>
       </c>
       <c r="T8" t="n">
         <v>108</v>
@@ -834,19 +834,19 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F9" t="n">
         <v>47</v>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H9" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>56.042</v>
       </c>
       <c r="M9" t="n">
-        <v>85</v>
+        <v>88.402</v>
       </c>
       <c r="N9" t="n">
-        <v>102.211</v>
+        <v>105.613</v>
       </c>
       <c r="O9" t="n">
         <v>269</v>
@@ -922,11 +922,11 @@
         <v>14</v>
       </c>
       <c r="D11" t="n">
+        <v>42</v>
+      </c>
+      <c r="E11" t="n">
         <v>39</v>
       </c>
-      <c r="E11" t="n">
-        <v>42</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
@@ -934,16 +934,16 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>25.495</v>
+        <v>32.016</v>
       </c>
       <c r="I11" t="n">
-        <v>44.715</v>
+        <v>51.235</v>
       </c>
       <c r="J11" t="n">
-        <v>99.759</v>
+        <v>97.235</v>
       </c>
       <c r="K11" t="n">
-        <v>143.73</v>
+        <v>141.206</v>
       </c>
       <c r="L11" t="n">
         <v>56</v>
@@ -1726,7 +1726,7 @@
         <v>2704.913</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -1828,11 +1828,11 @@
         <v>55</v>
       </c>
       <c r="D4" t="n">
+        <v>68</v>
+      </c>
+      <c r="E4" t="n">
         <v>93</v>
       </c>
-      <c r="E4" t="n">
-        <v>68</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
@@ -1840,16 +1840,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I4" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J4" t="n">
-        <v>206.016</v>
+        <v>192.472</v>
       </c>
       <c r="K4" t="n">
-        <v>237.111</v>
+        <v>223.567</v>
       </c>
       <c r="L4" t="n">
         <v>40</v>
@@ -2054,13 +2054,13 @@
         <v>61</v>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E9" t="n">
         <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2075,13 +2075,13 @@
         <v>92.401</v>
       </c>
       <c r="K9" t="n">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="L9" t="n">
-        <v>139</v>
+        <v>152.606</v>
       </c>
       <c r="M9" t="n">
-        <v>193.204</v>
+        <v>203.213</v>
       </c>
       <c r="N9" t="n">
         <v>59</v>
@@ -2842,10 +2842,10 @@
         <v>33</v>
       </c>
       <c r="D28" t="n">
+        <v>28</v>
+      </c>
+      <c r="E28" t="n">
         <v>30</v>
-      </c>
-      <c r="E28" t="n">
-        <v>28</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2857,13 +2857,13 @@
         <v>51.478</v>
       </c>
       <c r="I28" t="n">
-        <v>74</v>
+        <v>70.08</v>
       </c>
       <c r="J28" t="n">
-        <v>88</v>
+        <v>84.08</v>
       </c>
       <c r="K28" t="n">
-        <v>153.714</v>
+        <v>146.08</v>
       </c>
       <c r="L28" t="n">
         <v>30</v>
@@ -2896,7 +2896,7 @@
         <v>1880.468</v>
       </c>
       <c r="C1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -3920,22 +3920,22 @@
         <v>41</v>
       </c>
       <c r="D3" t="n">
+        <v>38</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43</v>
+      </c>
+      <c r="F3" t="n">
+        <v>37</v>
+      </c>
+      <c r="G3" t="n">
+        <v>32</v>
+      </c>
+      <c r="H3" t="n">
+        <v>24</v>
+      </c>
+      <c r="I3" t="n">
         <v>48</v>
-      </c>
-      <c r="E3" t="n">
-        <v>24</v>
-      </c>
-      <c r="F3" t="n">
-        <v>32</v>
-      </c>
-      <c r="G3" t="n">
-        <v>37</v>
-      </c>
-      <c r="H3" t="n">
-        <v>43</v>
-      </c>
-      <c r="I3" t="n">
-        <v>38</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3950,22 +3950,22 @@
         <v>392.403</v>
       </c>
       <c r="N3" t="n">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="O3" t="n">
-        <v>577.4400000000001</v>
+        <v>594.4400000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>651.072</v>
+        <v>660.903</v>
       </c>
       <c r="Q3" t="n">
-        <v>712.317</v>
+        <v>722.147</v>
       </c>
       <c r="R3" t="n">
-        <v>733.087</v>
+        <v>742.918</v>
       </c>
       <c r="S3" t="n">
-        <v>788.131</v>
+        <v>797.962</v>
       </c>
       <c r="T3" t="n">
         <v>110</v>
@@ -4014,25 +4014,25 @@
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
         <v>49</v>
       </c>
       <c r="H5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="J5" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -4053,19 +4053,19 @@
         <v>417.056</v>
       </c>
       <c r="Q5" t="n">
+        <v>440</v>
+      </c>
+      <c r="R5" t="n">
         <v>537</v>
       </c>
-      <c r="R5" t="n">
-        <v>550</v>
-      </c>
       <c r="S5" t="n">
-        <v>597.802</v>
+        <v>583.056</v>
       </c>
       <c r="T5" t="n">
-        <v>631.3390000000001</v>
+        <v>616.593</v>
       </c>
       <c r="U5" t="n">
-        <v>699.8630000000001</v>
+        <v>685.116</v>
       </c>
       <c r="V5" t="n">
         <v>200</v>
@@ -4132,19 +4132,19 @@
         <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
         <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H7" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -4159,19 +4159,19 @@
         <v>105</v>
       </c>
       <c r="M7" t="n">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="N7" t="n">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="O7" t="n">
-        <v>316.614</v>
+        <v>327</v>
       </c>
       <c r="P7" t="n">
-        <v>335</v>
+        <v>342.385</v>
       </c>
       <c r="Q7" t="n">
-        <v>390.177</v>
+        <v>397.563</v>
       </c>
       <c r="R7" t="n">
         <v>120</v>
@@ -4336,7 +4336,7 @@
         <v>1870.694</v>
       </c>
       <c r="C1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -6006,11 +6006,11 @@
         <v>14</v>
       </c>
       <c r="D7" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" t="n">
         <v>23</v>
       </c>
-      <c r="E7" t="n">
-        <v>15</v>
-      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
@@ -6018,16 +6018,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>32.016</v>
+      </c>
+      <c r="I7" t="n">
         <v>175</v>
       </c>
-      <c r="I7" t="n">
-        <v>200.811</v>
-      </c>
       <c r="J7" t="n">
-        <v>251.123</v>
+        <v>210</v>
       </c>
       <c r="K7" t="n">
-        <v>297.178</v>
+        <v>256.056</v>
       </c>
       <c r="L7" t="n">
         <v>57</v>
@@ -6656,7 +6656,7 @@
         <v>1948.331</v>
       </c>
       <c r="C1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -6670,19 +6670,19 @@
         <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E2" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
         <v>93</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H2" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -6697,19 +6697,19 @@
         <v>849</v>
       </c>
       <c r="M2" t="n">
-        <v>872.454</v>
+        <v>878.698</v>
       </c>
       <c r="N2" t="n">
-        <v>896.0549999999999</v>
+        <v>894.698</v>
       </c>
       <c r="O2" t="n">
-        <v>912.0549999999999</v>
+        <v>918.299</v>
       </c>
       <c r="P2" t="n">
-        <v>964.54</v>
+        <v>952.006</v>
       </c>
       <c r="Q2" t="n">
-        <v>995.635</v>
+        <v>983.101</v>
       </c>
       <c r="R2" t="n">
         <v>91</v>
@@ -6726,22 +6726,22 @@
         <v>27</v>
       </c>
       <c r="D3" t="n">
+        <v>28</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26</v>
+      </c>
+      <c r="F3" t="n">
+        <v>54</v>
+      </c>
+      <c r="G3" t="n">
+        <v>77</v>
+      </c>
+      <c r="H3" t="n">
+        <v>80</v>
+      </c>
+      <c r="I3" t="n">
         <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>80</v>
-      </c>
-      <c r="F3" t="n">
-        <v>77</v>
-      </c>
-      <c r="G3" t="n">
-        <v>54</v>
-      </c>
-      <c r="H3" t="n">
-        <v>26</v>
-      </c>
-      <c r="I3" t="n">
-        <v>28</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -6762,16 +6762,16 @@
         <v>641</v>
       </c>
       <c r="P3" t="n">
+        <v>817</v>
+      </c>
+      <c r="Q3" t="n">
         <v>839</v>
       </c>
-      <c r="Q3" t="n">
-        <v>855.708</v>
-      </c>
       <c r="R3" t="n">
-        <v>891.65</v>
+        <v>868.235</v>
       </c>
       <c r="S3" t="n">
-        <v>935.191</v>
+        <v>911.776</v>
       </c>
       <c r="T3" t="n">
         <v>93</v>
@@ -6788,31 +6788,31 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F4" t="n">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
         <v>91</v>
       </c>
       <c r="I4" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="L4" t="n">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -6839,19 +6839,19 @@
         <v>739</v>
       </c>
       <c r="U4" t="n">
-        <v>763.866</v>
+        <v>765.155</v>
       </c>
       <c r="V4" t="n">
-        <v>786.515</v>
+        <v>790.967</v>
       </c>
       <c r="W4" t="n">
-        <v>812.327</v>
+        <v>813.616</v>
       </c>
       <c r="X4" t="n">
-        <v>854.2329999999999</v>
+        <v>847.025</v>
       </c>
       <c r="Y4" t="n">
-        <v>892.0359999999999</v>
+        <v>884.828</v>
       </c>
       <c r="Z4" t="n">
         <v>126</v>
@@ -7288,19 +7288,19 @@
         <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F11" t="n">
         <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H11" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -7315,19 +7315,19 @@
         <v>236</v>
       </c>
       <c r="M11" t="n">
-        <v>254.485</v>
+        <v>294</v>
       </c>
       <c r="N11" t="n">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="O11" t="n">
-        <v>362.189</v>
+        <v>373.011</v>
       </c>
       <c r="P11" t="n">
-        <v>392.438</v>
+        <v>403.259</v>
       </c>
       <c r="Q11" t="n">
-        <v>444.864</v>
+        <v>455.686</v>
       </c>
       <c r="R11" t="n">
         <v>112</v>
@@ -7344,28 +7344,28 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
+        <v>83</v>
+      </c>
+      <c r="E12" t="n">
+        <v>45</v>
+      </c>
+      <c r="F12" t="n">
+        <v>82</v>
+      </c>
+      <c r="G12" t="n">
+        <v>47</v>
+      </c>
+      <c r="H12" t="n">
+        <v>36</v>
+      </c>
+      <c r="I12" t="n">
+        <v>64</v>
+      </c>
+      <c r="J12" t="n">
+        <v>71</v>
+      </c>
+      <c r="K12" t="n">
         <v>30</v>
-      </c>
-      <c r="E12" t="n">
-        <v>71</v>
-      </c>
-      <c r="F12" t="n">
-        <v>64</v>
-      </c>
-      <c r="G12" t="n">
-        <v>36</v>
-      </c>
-      <c r="H12" t="n">
-        <v>47</v>
-      </c>
-      <c r="I12" t="n">
-        <v>82</v>
-      </c>
-      <c r="J12" t="n">
-        <v>45</v>
-      </c>
-      <c r="K12" t="n">
-        <v>83</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -7395,13 +7395,13 @@
         <v>232.014</v>
       </c>
       <c r="U12" t="n">
-        <v>272.246</v>
+        <v>284.967</v>
       </c>
       <c r="V12" t="n">
-        <v>301.035</v>
+        <v>313.756</v>
       </c>
       <c r="W12" t="n">
-        <v>350.696</v>
+        <v>349.251</v>
       </c>
       <c r="X12" t="n">
         <v>146</v>
@@ -7418,10 +7418,10 @@
         <v>98</v>
       </c>
       <c r="D13" t="n">
+        <v>44</v>
+      </c>
+      <c r="E13" t="n">
         <v>16</v>
-      </c>
-      <c r="E13" t="n">
-        <v>44</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -7433,13 +7433,13 @@
         <v>183</v>
       </c>
       <c r="I13" t="n">
+        <v>233</v>
+      </c>
+      <c r="J13" t="n">
         <v>272</v>
       </c>
-      <c r="J13" t="n">
-        <v>288.083</v>
-      </c>
       <c r="K13" t="n">
-        <v>329.973</v>
+        <v>311.155</v>
       </c>
       <c r="L13" t="n">
         <v>47</v>
@@ -7456,13 +7456,13 @@
         <v>72</v>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
         <v>39</v>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -7474,16 +7474,16 @@
         <v>31</v>
       </c>
       <c r="J14" t="n">
-        <v>54.601</v>
+        <v>175</v>
       </c>
       <c r="K14" t="n">
-        <v>190</v>
+        <v>215.806</v>
       </c>
       <c r="L14" t="n">
-        <v>250.249</v>
+        <v>256.071</v>
       </c>
       <c r="M14" t="n">
-        <v>290.663</v>
+        <v>295.904</v>
       </c>
       <c r="N14" t="n">
         <v>73</v>
@@ -7886,7 +7886,7 @@
         <v>2458.674</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -8222,19 +8222,19 @@
         <v>92</v>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="E7" t="n">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="H7" t="n">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -8249,19 +8249,19 @@
         <v>392</v>
       </c>
       <c r="M7" t="n">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="N7" t="n">
-        <v>588.5410000000001</v>
+        <v>595.1180000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>636.659</v>
+        <v>626.659</v>
       </c>
       <c r="P7" t="n">
-        <v>730.522</v>
+        <v>673.995</v>
       </c>
       <c r="Q7" t="n">
-        <v>791.6</v>
+        <v>735.074</v>
       </c>
       <c r="R7" t="n">
         <v>111</v>
@@ -8278,25 +8278,25 @@
         <v>88</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="F8" t="n">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="I8" t="n">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8317,19 +8317,19 @@
         <v>401.155</v>
       </c>
       <c r="Q8" t="n">
-        <v>425.048</v>
+        <v>471</v>
       </c>
       <c r="R8" t="n">
         <v>489</v>
       </c>
       <c r="S8" t="n">
-        <v>505.403</v>
+        <v>504</v>
       </c>
       <c r="T8" t="n">
-        <v>561.976</v>
+        <v>549.903</v>
       </c>
       <c r="U8" t="n">
-        <v>603.598</v>
+        <v>591.525</v>
       </c>
       <c r="V8" t="n">
         <v>151</v>
@@ -8346,31 +8346,31 @@
         <v>83</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E9" t="n">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="G9" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H9" t="n">
         <v>49</v>
       </c>
       <c r="I9" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="K9" t="n">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="L9" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8400,16 +8400,16 @@
         <v>470.899</v>
       </c>
       <c r="V9" t="n">
-        <v>518.635</v>
+        <v>537.908</v>
       </c>
       <c r="W9" t="n">
-        <v>541.635</v>
+        <v>559.088</v>
       </c>
       <c r="X9" t="n">
-        <v>562.8150000000001</v>
+        <v>582.088</v>
       </c>
       <c r="Y9" t="n">
-        <v>631.3390000000001</v>
+        <v>627.429</v>
       </c>
       <c r="Z9" t="n">
         <v>210</v>
@@ -8538,22 +8538,22 @@
         <v>72</v>
       </c>
       <c r="D12" t="n">
+        <v>39</v>
+      </c>
+      <c r="E12" t="n">
+        <v>42</v>
+      </c>
+      <c r="F12" t="n">
+        <v>44</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>16</v>
+      </c>
+      <c r="I12" t="n">
         <v>12</v>
-      </c>
-      <c r="E12" t="n">
-        <v>16</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>44</v>
-      </c>
-      <c r="H12" t="n">
-        <v>42</v>
-      </c>
-      <c r="I12" t="n">
-        <v>39</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8577,13 +8577,13 @@
         <v>260.734</v>
       </c>
       <c r="Q12" t="n">
-        <v>303.84</v>
+        <v>312.074</v>
       </c>
       <c r="R12" t="n">
-        <v>323.274</v>
+        <v>331.508</v>
       </c>
       <c r="S12" t="n">
-        <v>374.505</v>
+        <v>373.897</v>
       </c>
       <c r="T12" t="n">
         <v>108</v>
@@ -8718,16 +8718,16 @@
         <v>45</v>
       </c>
       <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>36</v>
+      </c>
+      <c r="F15" t="n">
+        <v>27</v>
+      </c>
+      <c r="G15" t="n">
         <v>31</v>
-      </c>
-      <c r="E15" t="n">
-        <v>27</v>
-      </c>
-      <c r="F15" t="n">
-        <v>36</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -8745,13 +8745,13 @@
         <v>128</v>
       </c>
       <c r="M15" t="n">
-        <v>193.036</v>
+        <v>196.31</v>
       </c>
       <c r="N15" t="n">
-        <v>210.036</v>
+        <v>213.31</v>
       </c>
       <c r="O15" t="n">
-        <v>277.045</v>
+        <v>273.599</v>
       </c>
       <c r="P15" t="n">
         <v>110</v>
@@ -9070,13 +9070,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -9091,13 +9091,13 @@
         <v>1253</v>
       </c>
       <c r="K5" t="n">
-        <v>2292</v>
+        <v>2311</v>
       </c>
       <c r="L5" t="n">
-        <v>2425.738</v>
+        <v>2444.738</v>
       </c>
       <c r="M5" t="n">
-        <v>2549.04</v>
+        <v>2557.541</v>
       </c>
       <c r="N5" t="n">
         <v>50</v>
@@ -9786,7 +9786,7 @@
         <v>2623.245</v>
       </c>
       <c r="C1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -11258,16 +11258,16 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" t="n">
         <v>24</v>
-      </c>
-      <c r="E4" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -11285,13 +11285,13 @@
         <v>94.38500000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="N4" t="n">
-        <v>168.44</v>
+        <v>174.44</v>
       </c>
       <c r="O4" t="n">
-        <v>223.717</v>
+        <v>219.497</v>
       </c>
       <c r="P4" t="n">
         <v>110</v>
@@ -11642,19 +11642,19 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
         <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -11672,16 +11672,16 @@
         <v>371</v>
       </c>
       <c r="N4" t="n">
-        <v>417.056</v>
+        <v>426.343</v>
       </c>
       <c r="O4" t="n">
-        <v>437.826</v>
+        <v>447.113</v>
       </c>
       <c r="P4" t="n">
-        <v>530.796</v>
+        <v>529.391</v>
       </c>
       <c r="Q4" t="n">
-        <v>580.153</v>
+        <v>578.748</v>
       </c>
       <c r="R4" t="n">
         <v>150</v>
@@ -11698,16 +11698,16 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>21</v>
+      </c>
+      <c r="G5" t="n">
         <v>19</v>
-      </c>
-      <c r="E5" t="n">
-        <v>21</v>
-      </c>
-      <c r="F5" t="n">
-        <v>15</v>
-      </c>
-      <c r="G5" t="n">
-        <v>16</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -11719,19 +11719,19 @@
         <v>35.355</v>
       </c>
       <c r="K5" t="n">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="L5" t="n">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="M5" t="n">
-        <v>316.614</v>
+        <v>328.662</v>
       </c>
       <c r="N5" t="n">
-        <v>331.999</v>
+        <v>344.048</v>
       </c>
       <c r="O5" t="n">
-        <v>386.999</v>
+        <v>394.097</v>
       </c>
       <c r="P5" t="n">
         <v>100</v>
@@ -11866,10 +11866,10 @@
         <v>41</v>
       </c>
       <c r="D3" t="n">
+        <v>35</v>
+      </c>
+      <c r="E3" t="n">
         <v>37</v>
-      </c>
-      <c r="E3" t="n">
-        <v>35</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -11881,13 +11881,13 @@
         <v>92</v>
       </c>
       <c r="I3" t="n">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="J3" t="n">
-        <v>139</v>
+        <v>152.606</v>
       </c>
       <c r="K3" t="n">
-        <v>193.204</v>
+        <v>203.213</v>
       </c>
       <c r="L3" t="n">
         <v>50</v>
@@ -11942,16 +11942,16 @@
         <v>12</v>
       </c>
       <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G5" t="n">
         <v>24</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>11</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -11969,13 +11969,13 @@
         <v>94.38500000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="N5" t="n">
-        <v>168.44</v>
+        <v>174.44</v>
       </c>
       <c r="O5" t="n">
-        <v>223.717</v>
+        <v>219.497</v>
       </c>
       <c r="P5" t="n">
         <v>110</v>
@@ -12156,10 +12156,10 @@
         <v>39</v>
       </c>
       <c r="D10" t="n">
+        <v>40</v>
+      </c>
+      <c r="E10" t="n">
         <v>38</v>
-      </c>
-      <c r="E10" t="n">
-        <v>40</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -12171,13 +12171,13 @@
         <v>37</v>
       </c>
       <c r="I10" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J10" t="n">
-        <v>90.38500000000001</v>
+        <v>100.385</v>
       </c>
       <c r="K10" t="n">
-        <v>140.696</v>
+        <v>147.587</v>
       </c>
       <c r="L10" t="n">
         <v>70</v>
@@ -12392,10 +12392,10 @@
         <v>33</v>
       </c>
       <c r="D17" t="n">
+        <v>28</v>
+      </c>
+      <c r="E17" t="n">
         <v>30</v>
-      </c>
-      <c r="E17" t="n">
-        <v>28</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -12407,13 +12407,13 @@
         <v>51.478</v>
       </c>
       <c r="I17" t="n">
-        <v>74</v>
+        <v>70.08</v>
       </c>
       <c r="J17" t="n">
-        <v>88</v>
+        <v>84.08</v>
       </c>
       <c r="K17" t="n">
-        <v>153.714</v>
+        <v>146.08</v>
       </c>
       <c r="L17" t="n">
         <v>30</v>

--- a/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario1.xlsx
+++ b/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario1.xlsx
@@ -7886,7 +7886,7 @@
         <v>2458.674</v>
       </c>
       <c r="C1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -9786,7 +9786,7 @@
         <v>2623.245</v>
       </c>
       <c r="C1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
